--- a/nop-cli/demo/test-app.orm.xlsx
+++ b/nop-cli/demo/test-app.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\target\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC0B71-DBBB-49E8-B034-1E04CF6ED76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA650E05-E4AA-4E19-8556-AF25E1D4BFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12156" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -386,6 +386,14 @@
   </si>
   <si>
     <t>nop/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -548,11 +556,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,20 +632,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,35 +683,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,7 +1004,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -980,7 +1034,7 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
@@ -1089,7 +1143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -1409,7 +1463,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1418,143 +1472,143 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1869,146 +1923,146 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="16">
         <v>3</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="14" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="12" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="14" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="12" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="14" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="12" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -2017,68 +2071,74 @@
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="9">
         <v>1</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="32"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -2087,177 +2147,171 @@
       <c r="P26" s="9"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>6</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="8" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="14" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="12" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14" t="s">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="8" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="14" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="12" t="s">
+      <c r="L29" s="12"/>
+      <c r="M29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14" t="s">
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="8" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H30" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14" t="s">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="14" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="12" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="G33" s="12" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
@@ -2267,36 +2321,106 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
+      <c r="G34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+  <mergeCells count="78">
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
@@ -2305,63 +2429,19 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2376,160 +2456,160 @@
       <selection activeCell="I3" sqref="I3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="1"/>
-    <col min="9" max="9" width="5.08984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="1"/>
+    <col min="9" max="9" width="5.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.7265625" style="1"/>
+    <col min="15" max="16384" width="9.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="5"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="5"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="27"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="7"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2641,12 +2721,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
@@ -2654,6 +2728,12 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
